--- a/India-Input-Output Analysis--Employment Estimates--09132019.xlsx
+++ b/India-Input-Output Analysis--Employment Estimates--09132019.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Problem-Sets--753\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D2A656-C8B3-49A5-82DA-E7E31730DF47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="225" windowWidth="19440" windowHeight="10050" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw I-O data" sheetId="1" r:id="rId1"/>
@@ -14,16 +20,29 @@
     <sheet name="EO Matrix" sheetId="5" r:id="rId5"/>
     <sheet name="Employment Matrix" sheetId="6" r:id="rId6"/>
     <sheet name="Green Energy Program" sheetId="7" r:id="rId7"/>
+    <sheet name="Green Energy Program AW1" sheetId="8" r:id="rId8"/>
+    <sheet name="Green Energy Program AW2" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="PREINV">'(I-A)'!$E$49:$AM$83</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="238">
   <si>
     <t>Input-Output Table for 2009</t>
   </si>
@@ -742,7 +761,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
@@ -1107,7 +1126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1140,9 +1159,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1175,6 +1211,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1350,27 +1403,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU87"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E84" sqref="E84:AT84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1480,7 +1533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="90.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" ht="93" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1613,7 +1666,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1745,7 +1798,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1876,7 +1929,7 @@
       <c r="AT6" s="15"/>
       <c r="AU6" s="13"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
@@ -2016,7 +2069,7 @@
         <v>273495.29839000001</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2209,7 @@
         <v>41325.788930000002</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2349,7 @@
         <v>127107.27428</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -2436,7 +2489,7 @@
         <v>89685.942320000002</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>19</v>
       </c>
@@ -2576,7 +2629,7 @@
         <v>9488.5685200000007</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>20</v>
       </c>
@@ -2716,7 +2769,7 @@
         <v>11056.98265</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
@@ -2856,7 +2909,7 @@
         <v>20229.651259999999</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>23</v>
       </c>
@@ -2996,7 +3049,7 @@
         <v>111261.79947</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>24</v>
       </c>
@@ -3136,7 +3189,7 @@
         <v>86902.927110000004</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>25</v>
       </c>
@@ -3276,7 +3329,7 @@
         <v>30004.525430000002</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>26</v>
       </c>
@@ -3416,7 +3469,7 @@
         <v>36181.117769999997</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>8</v>
       </c>
@@ -3556,7 +3609,7 @@
         <v>160500.96543000001</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>29</v>
       </c>
@@ -3696,7 +3749,7 @@
         <v>53256.707280000002</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
@@ -3836,7 +3889,7 @@
         <v>61438.992359999997</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>10</v>
       </c>
@@ -3976,7 +4029,7 @@
         <v>72613.580619999993</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>11</v>
       </c>
@@ -4116,7 +4169,7 @@
         <v>73792.652560000002</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>12</v>
       </c>
@@ -4256,7 +4309,7 @@
         <v>65127.45766</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>13</v>
       </c>
@@ -4396,7 +4449,7 @@
         <v>297853.62287000002</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>50</v>
       </c>
@@ -4536,7 +4589,7 @@
         <v>9936.2903299999998</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>51</v>
       </c>
@@ -4676,7 +4729,7 @@
         <v>77198.657649999994</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>52</v>
       </c>
@@ -4816,7 +4869,7 @@
         <v>126059.99711</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>14</v>
       </c>
@@ -4956,7 +5009,7 @@
         <v>46796.685619999997</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>60</v>
       </c>
@@ -5096,7 +5149,7 @@
         <v>196249.30645999999</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>61</v>
       </c>
@@ -5236,7 +5289,7 @@
         <v>3414.3947499999999</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>62</v>
       </c>
@@ -5376,7 +5429,7 @@
         <v>3584.7781500000001</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>63</v>
       </c>
@@ -5516,7 +5569,7 @@
         <v>11658.69073</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>64</v>
       </c>
@@ -5656,7 +5709,7 @@
         <v>27573.116290000002</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>15</v>
       </c>
@@ -5796,7 +5849,7 @@
         <v>89527.77205</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>70</v>
       </c>
@@ -5936,7 +5989,7 @@
         <v>74611.378289999993</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>16</v>
       </c>
@@ -6076,7 +6129,7 @@
         <v>90301.163769999999</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>17</v>
       </c>
@@ -6216,7 +6269,7 @@
         <v>85225.186220000003</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>18</v>
       </c>
@@ -6356,7 +6409,7 @@
         <v>58772.875950000001</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>19</v>
       </c>
@@ -6496,7 +6549,7 @@
         <v>32351.781599999998</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>20</v>
       </c>
@@ -6636,7 +6689,7 @@
         <v>33383.152320000001</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>21</v>
       </c>
@@ -6776,7 +6829,7 @@
         <v>2649.3862100000001</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
         <v>3</v>
       </c>
@@ -6916,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
         <v>4</v>
       </c>
@@ -7056,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
         <v>5</v>
       </c>
@@ -7196,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
         <v>6</v>
       </c>
@@ -7336,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
         <v>19</v>
       </c>
@@ -7476,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47" s="21">
         <v>20</v>
       </c>
@@ -7616,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
         <v>7</v>
       </c>
@@ -7756,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A49" s="21">
         <v>23</v>
       </c>
@@ -7896,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A50" s="21">
         <v>24</v>
       </c>
@@ -8036,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A51" s="21">
         <v>25</v>
       </c>
@@ -8176,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A52" s="21">
         <v>26</v>
       </c>
@@ -8316,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
         <v>8</v>
       </c>
@@ -8456,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A54" s="21">
         <v>29</v>
       </c>
@@ -8596,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="s">
         <v>9</v>
       </c>
@@ -8736,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A56" s="21" t="s">
         <v>10</v>
       </c>
@@ -8876,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
         <v>11</v>
       </c>
@@ -9016,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
         <v>12</v>
       </c>
@@ -9156,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
         <v>13</v>
       </c>
@@ -9296,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A60" s="21">
         <v>50</v>
       </c>
@@ -9436,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A61" s="21">
         <v>51</v>
       </c>
@@ -9576,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A62" s="21">
         <v>52</v>
       </c>
@@ -9716,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
         <v>14</v>
       </c>
@@ -9856,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A64" s="21">
         <v>60</v>
       </c>
@@ -9996,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A65" s="21">
         <v>61</v>
       </c>
@@ -10136,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A66" s="21">
         <v>62</v>
       </c>
@@ -10276,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A67" s="21">
         <v>63</v>
       </c>
@@ -10416,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A68" s="21">
         <v>64</v>
       </c>
@@ -10556,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
         <v>15</v>
       </c>
@@ -10696,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A70" s="21">
         <v>70</v>
       </c>
@@ -10836,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A71" s="21" t="s">
         <v>16</v>
       </c>
@@ -10976,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A72" s="21" t="s">
         <v>17</v>
       </c>
@@ -11116,7 +11169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A73" s="21" t="s">
         <v>18</v>
       </c>
@@ -11256,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
         <v>19</v>
       </c>
@@ -11396,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
         <v>20</v>
       </c>
@@ -11536,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="s">
         <v>21</v>
       </c>
@@ -11676,7 +11729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A77" s="24"/>
       <c r="B77" s="25" t="s">
         <v>108</v>
@@ -11814,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A78" s="27"/>
       <c r="B78" s="28" t="s">
         <v>111</v>
@@ -11950,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A79" s="27"/>
       <c r="B79" s="28" t="s">
         <v>113</v>
@@ -12086,7 +12139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A80" s="27"/>
       <c r="B80" s="28" t="s">
         <v>115</v>
@@ -12222,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A81" s="27"/>
       <c r="B81" s="28" t="s">
         <v>117</v>
@@ -12358,7 +12411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A82" s="24"/>
       <c r="B82" s="25" t="s">
         <v>119</v>
@@ -12494,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A83" s="27"/>
       <c r="B83" s="28" t="s">
         <v>121</v>
@@ -12628,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A84" s="33"/>
       <c r="B84" s="34" t="s">
         <v>122</v>
@@ -12764,7 +12817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>124</v>
       </c>
@@ -12775,22 +12828,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT84"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12798,7 +12851,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12908,7 +12961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="90.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -13020,7 +13073,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -13131,7 +13184,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -13242,7 +13295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
@@ -13396,7 +13449,7 @@
         <v>0.53874280594338597</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -13550,7 +13603,7 @@
         <v>0.48550185376908284</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -13704,7 +13757,7 @@
         <v>0.61912835973069646</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -13858,7 +13911,7 @@
         <v>3.1447762576718157</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>19</v>
       </c>
@@ -14012,7 +14065,7 @@
         <v>0.17229504257787193</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>20</v>
       </c>
@@ -14166,7 +14219,7 @@
         <v>1.2558990916093231</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
@@ -14320,7 +14373,7 @@
         <v>3.0948409315291148</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>23</v>
       </c>
@@ -14474,7 +14527,7 @@
         <v>1.46970656224478</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>24</v>
       </c>
@@ -14628,7 +14681,7 @@
         <v>8.9492823136371502</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>25</v>
       </c>
@@ -14782,7 +14835,7 @@
         <v>2.1802249658150057</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>26</v>
       </c>
@@ -14936,7 +14989,7 @@
         <v>1.168234252124809</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>8</v>
       </c>
@@ -15090,7 +15143,7 @@
         <v>5.3874036268531222</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>29</v>
       </c>
@@ -15244,7 +15297,7 @@
         <v>10.833210713891424</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
@@ -15398,7 +15451,7 @@
         <v>23.343343069548638</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>10</v>
       </c>
@@ -15552,7 +15605,7 @@
         <v>4.8593480951627042</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>11</v>
       </c>
@@ -15706,7 +15759,7 @@
         <v>146.02107434211328</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>12</v>
       </c>
@@ -15860,7 +15913,7 @@
         <v>4.5425399959073136</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>13</v>
       </c>
@@ -16014,7 +16067,7 @@
         <v>23.717796482585747</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>50</v>
       </c>
@@ -16168,7 +16221,7 @@
         <v>0.50731298623000054</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>51</v>
       </c>
@@ -16322,7 +16375,7 @@
         <v>3.8835462664134854</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>52</v>
       </c>
@@ -16476,7 +16529,7 @@
         <v>5.4418982837486087</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>14</v>
       </c>
@@ -16630,7 +16683,7 @@
         <v>1.967097591184777</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>60</v>
       </c>
@@ -16784,7 +16837,7 @@
         <v>10.837288296540827</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>61</v>
       </c>
@@ -16938,7 +16991,7 @@
         <v>0.10848812961045685</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>62</v>
       </c>
@@ -17092,7 +17145,7 @@
         <v>0.25003007211475364</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>63</v>
       </c>
@@ -17246,7 +17299,7 @@
         <v>0.29083435210861508</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>64</v>
       </c>
@@ -17400,7 +17453,7 @@
         <v>9.8001538435994764</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>15</v>
       </c>
@@ -17554,7 +17607,7 @@
         <v>4.6288737245226192</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>70</v>
       </c>
@@ -17708,7 +17761,7 @@
         <v>6.8660019107375167E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>16</v>
       </c>
@@ -17862,7 +17915,7 @@
         <v>105.19730023675929</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>17</v>
       </c>
@@ -18016,7 +18069,7 @@
         <v>0.17798389083296282</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>18</v>
       </c>
@@ -18170,7 +18223,7 @@
         <v>0.59647523604080332</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>19</v>
       </c>
@@ -18324,7 +18377,7 @@
         <v>2.4677165066266826E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>20</v>
       </c>
@@ -18478,7 +18531,7 @@
         <v>61.345068441964948</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>21</v>
       </c>
@@ -18632,7 +18685,7 @@
         <v>4.9649470916590328</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" s="33"/>
       <c r="B42" s="34" t="s">
         <v>122</v>
@@ -18754,13 +18807,13 @@
       <c r="AS42" s="20"/>
       <c r="AT42" s="20"/>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" s="58" t="s">
         <v>126</v>
       </c>
       <c r="B44" s="58"/>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -18870,7 +18923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:46" ht="57" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>22</v>
       </c>
@@ -18982,7 +19035,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -19093,7 +19146,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -19204,7 +19257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>3</v>
       </c>
@@ -19358,7 +19411,7 @@
         <v>2.0334627088716746E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>4</v>
       </c>
@@ -19512,7 +19565,7 @@
         <v>1.8325069102291538E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>5</v>
       </c>
@@ -19666,7 +19719,7 @@
         <v>2.3368746972178754E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>6</v>
       </c>
@@ -19820,7 +19873,7 @@
         <v>1.1869829494099372E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>19</v>
       </c>
@@ -19974,7 +20027,7 @@
         <v>6.5032059851278498E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>20</v>
       </c>
@@ -20128,7 +20181,7 @@
         <v>4.7403398072692584E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>7</v>
       </c>
@@ -20282,7 +20335,7 @@
         <v>1.1681350645850589E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>23</v>
       </c>
@@ -20436,7 +20489,7 @@
         <v>5.5473473693545795E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>24</v>
       </c>
@@ -20590,7 +20643,7 @@
         <v>3.3778700439590307E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>25</v>
       </c>
@@ -20744,7 +20797,7 @@
         <v>8.2291700529950502E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>26</v>
       </c>
@@ -20898,7 +20951,7 @@
         <v>4.4094524524788292E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
         <v>8</v>
       </c>
@@ -21052,7 +21105,7 @@
         <v>2.033453486893903E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>29</v>
       </c>
@@ -21206,7 +21259,7 @@
         <v>4.0889511212075886E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>9</v>
       </c>
@@ -21360,7 +21413,7 @@
         <v>8.8108494644684645E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
         <v>10</v>
       </c>
@@ -21514,7 +21567,7 @@
         <v>1.8341410840070403E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>11</v>
       </c>
@@ -21668,7 +21721,7 @@
         <v>5.511505789188556E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>12</v>
       </c>
@@ -21822,7 +21875,7 @@
         <v>1.7145631613698605E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>13</v>
       </c>
@@ -21976,7 +22029,7 @@
         <v>8.952185375263105E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>50</v>
       </c>
@@ -22130,7 +22183,7 @@
         <v>1.9148321385352139E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>51</v>
       </c>
@@ -22284,7 +22337,7 @@
         <v>1.4658286707144464E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>52</v>
       </c>
@@ -22438,7 +22491,7 @@
         <v>2.0540222724827304E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
         <v>14</v>
       </c>
@@ -22592,7 +22645,7 @@
         <v>7.4247294854938378E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>60</v>
       </c>
@@ -22746,7 +22799,7 @@
         <v>4.090490188118261E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>61</v>
       </c>
@@ -22900,7 +22953,7 @@
         <v>4.0948401256477008E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>62</v>
       </c>
@@ -23054,7 +23107,7 @@
         <v>9.4372829137188578E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>63</v>
       </c>
@@ -23208,7 +23261,7 @@
         <v>1.0977423790116846E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>64</v>
       </c>
@@ -23362,7 +23415,7 @@
         <v>3.6990280264195519E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="s">
         <v>15</v>
       </c>
@@ -23516,7 +23569,7 @@
         <v>1.7471494744900251E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>70</v>
       </c>
@@ -23670,7 +23723,7 @@
         <v>2.5915443678320936E-6</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
         <v>16</v>
       </c>
@@ -23824,7 +23877,7 @@
         <v>3.9706291155172609E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
         <v>17</v>
       </c>
@@ -23978,7 +24031,7 @@
         <v>6.7179292381446652E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
         <v>18</v>
       </c>
@@ -24132,7 +24185,7 @@
         <v>2.2513714074204504E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
         <v>19</v>
       </c>
@@ -24286,7 +24339,7 @@
         <v>9.3142951273483166E-6</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>20</v>
       </c>
@@ -24440,7 +24493,7 @@
         <v>2.3154445437369792E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
         <v>21</v>
       </c>
@@ -24603,22 +24656,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM83"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -24626,7 +24679,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -24736,7 +24789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="90.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="93" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -24848,7 +24901,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -24959,7 +25012,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -25070,7 +25123,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
@@ -25224,7 +25277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -25378,7 +25431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -25532,7 +25585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -25686,7 +25739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>19</v>
       </c>
@@ -25840,7 +25893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>20</v>
       </c>
@@ -25994,7 +26047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
@@ -26148,7 +26201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>23</v>
       </c>
@@ -26302,7 +26355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>24</v>
       </c>
@@ -26456,7 +26509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>25</v>
       </c>
@@ -26610,7 +26663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>26</v>
       </c>
@@ -26764,7 +26817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>8</v>
       </c>
@@ -26918,7 +26971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>29</v>
       </c>
@@ -27072,7 +27125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
@@ -27226,7 +27279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>10</v>
       </c>
@@ -27380,7 +27433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>11</v>
       </c>
@@ -27534,7 +27587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>12</v>
       </c>
@@ -27688,7 +27741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>13</v>
       </c>
@@ -27842,7 +27895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>50</v>
       </c>
@@ -27996,7 +28049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>51</v>
       </c>
@@ -28150,7 +28203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>52</v>
       </c>
@@ -28304,7 +28357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>14</v>
       </c>
@@ -28458,7 +28511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>60</v>
       </c>
@@ -28612,7 +28665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>61</v>
       </c>
@@ -28766,7 +28819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>62</v>
       </c>
@@ -28920,7 +28973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>63</v>
       </c>
@@ -29074,7 +29127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>64</v>
       </c>
@@ -29228,7 +29281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>15</v>
       </c>
@@ -29382,7 +29435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>70</v>
       </c>
@@ -29536,7 +29589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>16</v>
       </c>
@@ -29690,7 +29743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>17</v>
       </c>
@@ -29844,7 +29897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>18</v>
       </c>
@@ -29998,7 +30051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>19</v>
       </c>
@@ -30152,7 +30205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>20</v>
       </c>
@@ -30306,7 +30359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>21</v>
       </c>
@@ -30460,14 +30513,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="58" t="s">
         <v>128</v>
       </c>
       <c r="B43" s="58"/>
       <c r="C43" s="58"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -30577,7 +30630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="90.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="93" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>22</v>
       </c>
@@ -30689,7 +30742,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -30800,7 +30853,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -30911,7 +30964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>3</v>
       </c>
@@ -31065,7 +31118,7 @@
         <v>-2.0334627088716746E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>4</v>
       </c>
@@ -31219,7 +31272,7 @@
         <v>-1.8325069102291538E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>5</v>
       </c>
@@ -31373,7 +31426,7 @@
         <v>-2.3368746972178754E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>6</v>
       </c>
@@ -31527,7 +31580,7 @@
         <v>-1.1869829494099372E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>19</v>
       </c>
@@ -31681,7 +31734,7 @@
         <v>-6.5032059851278498E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>20</v>
       </c>
@@ -31835,7 +31888,7 @@
         <v>-4.7403398072692584E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>7</v>
       </c>
@@ -31989,7 +32042,7 @@
         <v>-1.1681350645850589E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>23</v>
       </c>
@@ -32143,7 +32196,7 @@
         <v>-5.5473473693545795E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>24</v>
       </c>
@@ -32297,7 +32350,7 @@
         <v>-3.3778700439590307E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>25</v>
       </c>
@@ -32451,7 +32504,7 @@
         <v>-8.2291700529950502E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>26</v>
       </c>
@@ -32605,7 +32658,7 @@
         <v>-4.4094524524788292E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
         <v>8</v>
       </c>
@@ -32759,7 +32812,7 @@
         <v>-2.033453486893903E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>29</v>
       </c>
@@ -32913,7 +32966,7 @@
         <v>-4.0889511212075886E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
         <v>9</v>
       </c>
@@ -33067,7 +33120,7 @@
         <v>-8.8108494644684645E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>10</v>
       </c>
@@ -33221,7 +33274,7 @@
         <v>-1.8341410840070403E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
         <v>11</v>
       </c>
@@ -33375,7 +33428,7 @@
         <v>-5.511505789188556E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>12</v>
       </c>
@@ -33529,7 +33582,7 @@
         <v>-1.7145631613698605E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>13</v>
       </c>
@@ -33683,7 +33736,7 @@
         <v>-8.952185375263105E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>50</v>
       </c>
@@ -33837,7 +33890,7 @@
         <v>-1.9148321385352139E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>51</v>
       </c>
@@ -33991,7 +34044,7 @@
         <v>-1.4658286707144464E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>52</v>
       </c>
@@ -34145,7 +34198,7 @@
         <v>-2.0540222724827304E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="16" t="s">
         <v>14</v>
       </c>
@@ -34299,7 +34352,7 @@
         <v>-7.4247294854938378E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>60</v>
       </c>
@@ -34453,7 +34506,7 @@
         <v>-4.090490188118261E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>61</v>
       </c>
@@ -34607,7 +34660,7 @@
         <v>-4.0948401256477008E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>62</v>
       </c>
@@ -34761,7 +34814,7 @@
         <v>-9.4372829137188578E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>63</v>
       </c>
@@ -34915,7 +34968,7 @@
         <v>-1.0977423790116846E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>64</v>
       </c>
@@ -35069,7 +35122,7 @@
         <v>-3.6990280264195519E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>15</v>
       </c>
@@ -35223,7 +35276,7 @@
         <v>-1.7471494744900251E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>70</v>
       </c>
@@ -35377,7 +35430,7 @@
         <v>-2.5915443678320936E-6</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>16</v>
       </c>
@@ -35531,7 +35584,7 @@
         <v>-3.9706291155172609E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
         <v>17</v>
       </c>
@@ -35685,7 +35738,7 @@
         <v>-6.7179292381446652E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
         <v>18</v>
       </c>
@@ -35839,7 +35892,7 @@
         <v>-2.2513714074204504E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
         <v>19</v>
       </c>
@@ -35993,7 +36046,7 @@
         <v>-9.3142951273483166E-6</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
         <v>20</v>
       </c>
@@ -36147,7 +36200,7 @@
         <v>-2.3154445437369792E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>21</v>
       </c>
@@ -36310,25 +36363,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="33" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="33" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -36438,7 +36491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="90.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -36550,7 +36603,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -36661,7 +36714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -36772,7 +36825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -36892,7 +36945,7 @@
         <v>4.0538419833665703E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -37011,7 +37064,7 @@
         <v>7.5727340345808558E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -37130,7 +37183,7 @@
         <v>1.7517923313373324E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -37249,7 +37302,7 @@
         <v>3.5734338355927751E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>19</v>
       </c>
@@ -37368,7 +37421,7 @@
         <v>5.8191226048249448E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>20</v>
       </c>
@@ -37487,7 +37540,7 @@
         <v>2.1176680400485852E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
@@ -37606,7 +37659,7 @@
         <v>3.9284133247277286E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>23</v>
       </c>
@@ -37725,7 +37778,7 @@
         <v>9.3870038512142429E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>24</v>
       </c>
@@ -37844,7 +37897,7 @@
         <v>1.3946901508081923E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>25</v>
       </c>
@@ -37963,7 +38016,7 @@
         <v>5.5217706218788883E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>26</v>
       </c>
@@ -38082,7 +38135,7 @@
         <v>3.4057952398072284E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>8</v>
       </c>
@@ -38201,7 +38254,7 @@
         <v>2.3822252825018118E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>29</v>
       </c>
@@ -38320,7 +38373,7 @@
         <v>1.0527767856628574E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>9</v>
       </c>
@@ -38439,7 +38492,7 @@
         <v>1.8797264506758646E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>10</v>
       </c>
@@ -38558,7 +38611,7 @@
         <v>5.6198564573215586E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>11</v>
       </c>
@@ -38677,7 +38730,7 @@
         <v>9.2127163441622778E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>12</v>
       </c>
@@ -38796,7 +38849,7 @@
         <v>8.5263987912993309E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>13</v>
       </c>
@@ -38915,7 +38968,7 @@
         <v>1.5274604545905771E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>50</v>
       </c>
@@ -39034,7 +39087,7 @@
         <v>9.2977806085831061E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>51</v>
       </c>
@@ -39153,7 +39206,7 @@
         <v>7.3733677165607634E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>52</v>
       </c>
@@ -39272,7 +39325,7 @@
         <v>1.135844134913043E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>14</v>
       </c>
@@ -39391,7 +39444,7 @@
         <v>2.3989889360857735E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>60</v>
       </c>
@@ -39510,7 +39563,7 @@
         <v>1.7946854601556646E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>61</v>
       </c>
@@ -39629,7 +39682,7 @@
         <v>2.7220982813183669E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>62</v>
       </c>
@@ -39748,7 +39801,7 @@
         <v>3.9424344070086953E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>63</v>
       </c>
@@ -39867,7 +39920,7 @@
         <v>1.0437028783523269E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>64</v>
       </c>
@@ -39986,7 +40039,7 @@
         <v>8.9232973461958326E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>15</v>
       </c>
@@ -40105,7 +40158,7 @@
         <v>1.6502370931802308E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>70</v>
       </c>
@@ -40224,7 +40277,7 @@
         <v>6.3484301173250975E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>16</v>
       </c>
@@ -40343,7 +40396,7 @@
         <v>4.9746941507652305E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>17</v>
       </c>
@@ -40462,7 +40515,7 @@
         <v>8.7021727154848263E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>18</v>
       </c>
@@ -40581,7 +40634,7 @@
         <v>6.4871069155111719E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>19</v>
       </c>
@@ -40700,7 +40753,7 @@
         <v>3.2689023970952576E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>20</v>
       </c>
@@ -40819,7 +40872,7 @@
         <v>2.5733922754883162E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>21</v>
       </c>
@@ -40944,24 +40997,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="9" max="9" width="37" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>129</v>
       </c>
@@ -40984,7 +41037,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>132</v>
       </c>
@@ -40995,7 +41048,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -41019,7 +41072,7 @@
         <v>895.24636295156313</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -41043,7 +41096,7 @@
         <v>66.820680633041206</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>137</v>
       </c>
@@ -41067,7 +41120,7 @@
         <v>76.037825205105165</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -41091,7 +41144,7 @@
         <v>174.47585665284896</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>141</v>
       </c>
@@ -41115,7 +41168,7 @@
         <v>97.008568369383482</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>143</v>
       </c>
@@ -41139,7 +41192,7 @@
         <v>332.99227361996446</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>145</v>
       </c>
@@ -41163,7 +41216,7 @@
         <v>68.251728823920416</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>146</v>
       </c>
@@ -41187,7 +41240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>147</v>
       </c>
@@ -41211,7 +41264,7 @@
         <v>21.183922765567704</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>148</v>
       </c>
@@ -41235,7 +41288,7 @@
         <v>30.677787260706555</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>149</v>
       </c>
@@ -41259,7 +41312,7 @@
         <v>114.48308596575457</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>150</v>
       </c>
@@ -41283,7 +41336,7 @@
         <v>22.939985327414114</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>151</v>
       </c>
@@ -41307,7 +41360,7 @@
         <v>25.925535815439169</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>152</v>
       </c>
@@ -41331,7 +41384,7 @@
         <v>22.472840438361644</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>153</v>
       </c>
@@ -41355,7 +41408,7 @@
         <v>25.352625229073851</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
         <v>154</v>
       </c>
@@ -41379,7 +41432,7 @@
         <v>37.421304807476893</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>155</v>
       </c>
@@ -41403,7 +41456,7 @@
         <v>21.200100873091568</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>156</v>
       </c>
@@ -41427,7 +41480,7 @@
         <v>148.33688131194492</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>157</v>
       </c>
@@ -41451,7 +41504,7 @@
         <v>231.59358710083103</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>158</v>
       </c>
@@ -41475,7 +41528,7 @@
         <v>71.54055337385779</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>159</v>
       </c>
@@ -41499,7 +41552,7 @@
         <v>284.77253922729369</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>160</v>
       </c>
@@ -41523,7 +41576,7 @@
         <v>127.85245007699757</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>161</v>
       </c>
@@ -41547,7 +41600,7 @@
         <v>86.770957794293338</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>162</v>
       </c>
@@ -41571,7 +41624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>163</v>
       </c>
@@ -41595,7 +41648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>164</v>
       </c>
@@ -41619,7 +41672,7 @@
         <v>78.951613806124172</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="41" t="s">
         <v>165</v>
       </c>
@@ -41643,7 +41696,7 @@
         <v>66.765935218851524</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>166</v>
       </c>
@@ -41667,7 +41720,7 @@
         <v>41.125672042231948</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>167</v>
       </c>
@@ -41691,7 +41744,7 @@
         <v>12.33689108948372</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>168</v>
       </c>
@@ -41715,7 +41768,7 @@
         <v>25.483404907839098</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>169</v>
       </c>
@@ -41739,7 +41792,7 @@
         <v>113.40498193868305</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>170</v>
       </c>
@@ -41763,7 +41816,7 @@
         <v>203.5997325395474</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>171</v>
       </c>
@@ -41787,7 +41840,7 @@
         <v>113.80794534048165</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
         <v>172</v>
       </c>
@@ -41811,7 +41864,7 @@
         <v>261.94315540300653</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>173</v>
       </c>
@@ -41835,7 +41888,7 @@
         <v>1389.7142583828877</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
         <v>175</v>
       </c>
@@ -41846,7 +41899,7 @@
         <v>920472.44799999997</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>176</v>
       </c>
@@ -41857,7 +41910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
         <v>177</v>
       </c>
@@ -41868,7 +41921,7 @@
         <v>1380708.672</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -41879,7 +41932,7 @@
         <v>44182677.504000001</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>40</v>
       </c>
@@ -41890,7 +41943,7 @@
         <v>44182677.504000001</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
         <v>178</v>
       </c>
@@ -41901,7 +41954,7 @@
         <v>2301181.12</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
         <v>179</v>
       </c>
@@ -41912,7 +41965,7 @@
         <v>5522834.6880000001</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>180</v>
       </c>
@@ -41923,7 +41976,7 @@
         <v>35898425.472000003</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="37" t="s">
         <v>181</v>
       </c>
@@ -41934,7 +41987,7 @@
         <v>43722441.280000001</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
         <v>44</v>
       </c>
@@ -41945,7 +41998,7 @@
         <v>5983070.9119999995</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="37" t="s">
         <v>44</v>
       </c>
@@ -41956,7 +42009,7 @@
         <v>5983070.9119999995</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="46" t="s">
         <v>183</v>
       </c>
@@ -41967,7 +42020,7 @@
         <v>17028740.287999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>184</v>
       </c>
@@ -41978,7 +42031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
         <v>185</v>
       </c>
@@ -41989,7 +42042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
         <v>186</v>
       </c>
@@ -42000,7 +42053,7 @@
         <v>920472.44799999997</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
         <v>187</v>
       </c>
@@ -42011,7 +42064,7 @@
         <v>1840944.8959999999</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="37" t="s">
         <v>188</v>
       </c>
@@ -42022,7 +42075,7 @@
         <v>19790157.631999999</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="41" t="s">
         <v>190</v>
       </c>
@@ -42033,7 +42086,7 @@
         <v>2761417.344</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="41" t="s">
         <v>191</v>
       </c>
@@ -42044,7 +42097,7 @@
         <v>920472.44799999997</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="41" t="s">
         <v>192</v>
       </c>
@@ -42055,7 +42108,7 @@
         <v>460236.22399999999</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="37" t="s">
         <v>193</v>
       </c>
@@ -42066,7 +42119,7 @@
         <v>3681889.7919999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="41" t="s">
         <v>194</v>
       </c>
@@ -42077,7 +42130,7 @@
         <v>920472.44799999997</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="41" t="s">
         <v>195</v>
       </c>
@@ -42088,7 +42141,7 @@
         <v>460236.22399999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="41" t="s">
         <v>196</v>
       </c>
@@ -42099,7 +42152,7 @@
         <v>1840944.8959999999</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="41" t="s">
         <v>197</v>
       </c>
@@ -42110,7 +42163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
         <v>198</v>
       </c>
@@ -42121,7 +42174,7 @@
         <v>2761417.344</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="37" t="s">
         <v>199</v>
       </c>
@@ -42132,7 +42185,7 @@
         <v>5983070.9119999995</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>201</v>
       </c>
@@ -42143,7 +42196,7 @@
         <v>9664960.7039999999</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="37" t="s">
         <v>201</v>
       </c>
@@ -42154,7 +42207,7 @@
         <v>9664960.7039999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
         <v>54</v>
       </c>
@@ -42165,7 +42218,7 @@
         <v>11966141.823999999</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="37" t="s">
         <v>54</v>
       </c>
@@ -42176,7 +42229,7 @@
         <v>11966141.823999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
         <v>202</v>
       </c>
@@ -42187,7 +42240,7 @@
         <v>3681889.7919999999</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="37" t="s">
         <v>202</v>
       </c>
@@ -42198,7 +42251,7 @@
         <v>3681889.7919999999</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>203</v>
       </c>
@@ -42209,7 +42262,7 @@
         <v>460236.22399999999</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>204</v>
       </c>
@@ -42220,7 +42273,7 @@
         <v>1380708.672</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>205</v>
       </c>
@@ -42231,7 +42284,7 @@
         <v>920472.44799999997</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>206</v>
       </c>
@@ -42242,7 +42295,7 @@
         <v>5983070.9119999995</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="s">
         <v>207</v>
       </c>
@@ -42253,7 +42306,7 @@
         <v>8744488.2559999991</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>208</v>
       </c>
@@ -42264,7 +42317,7 @@
         <v>3681889.7919999999</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="37" t="s">
         <v>209</v>
       </c>
@@ -42275,7 +42328,7 @@
         <v>3681889.7919999999</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>210</v>
       </c>
@@ -42286,7 +42339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="37" t="s">
         <v>210</v>
       </c>
@@ -42303,16 +42356,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AM44"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -42422,7 +42475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="90.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="93" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -42532,7 +42585,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -42643,7 +42696,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -42754,7 +42807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -42908,7 +42961,7 @@
         <v>3.6291872915892731</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -43062,7 +43115,7 @@
         <v>0.50601524244368901</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -43216,7 +43269,7 @@
         <v>0.13320247908587174</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -43370,7 +43423,7 @@
         <v>0.62347792965732529</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>19</v>
       </c>
@@ -43524,7 +43577,7 @@
         <v>5.6450475305998553E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>20</v>
       </c>
@@ -43678,7 +43731,7 @@
         <v>0.70516709542811229</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
@@ -43832,7 +43885,7 @@
         <v>0.26812100094759256</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>23</v>
       </c>
@@ -43986,7 +44039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>24</v>
       </c>
@@ -44140,7 +44193,7 @@
         <v>0.29545008436618719</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>25</v>
       </c>
@@ -44294,7 +44347,7 @@
         <v>0.16939570444041988</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>26</v>
       </c>
@@ -44448,7 +44501,7 @@
         <v>0.38990594922060862</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>8</v>
       </c>
@@ -44602,7 +44655,7 @@
         <v>0.5464821302718651</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>29</v>
       </c>
@@ -44756,7 +44809,7 @@
         <v>0.27293802262365335</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>9</v>
       </c>
@@ -44910,7 +44963,7 @@
         <v>0.42242792593806572</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>10</v>
       </c>
@@ -45064,7 +45117,7 @@
         <v>0.14247811460366414</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>11</v>
       </c>
@@ -45218,7 +45271,7 @@
         <v>3.447518664197208</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>12</v>
       </c>
@@ -45372,7 +45425,7 @@
         <v>0.18076051445975183</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>13</v>
       </c>
@@ -45526,7 +45579,7 @@
         <v>2.2657872016129188</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>50</v>
       </c>
@@ -45680,7 +45733,7 @@
         <v>0.21533063632183094</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>51</v>
       </c>
@@ -45834,7 +45887,7 @@
         <v>0.52749480667169524</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>52</v>
       </c>
@@ -45988,7 +46041,7 @@
         <v>3.2345721846561601</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>14</v>
       </c>
@@ -46142,7 +46195,7 @@
         <v>0.30671661318617588</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>60</v>
       </c>
@@ -46296,7 +46349,7 @@
         <v>1.5572657631719911</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>61</v>
       </c>
@@ -46450,7 +46503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>62</v>
       </c>
@@ -46604,7 +46657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>63</v>
       </c>
@@ -46758,7 +46811,7 @@
         <v>8.240202658001311E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>64</v>
       </c>
@@ -46912,7 +46965,7 @@
         <v>0.59577229255466069</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>15</v>
       </c>
@@ -47066,7 +47119,7 @@
         <v>0.67867109486056332</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>70</v>
       </c>
@@ -47220,7 +47273,7 @@
         <v>7.8319890946638082E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>16</v>
       </c>
@@ -47374,7 +47427,7 @@
         <v>1.2677214533660912</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>17</v>
       </c>
@@ -47528,7 +47581,7 @@
         <v>9.868697396268571E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>18</v>
       </c>
@@ -47682,7 +47735,7 @@
         <v>0.13207732329535229</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>19</v>
       </c>
@@ -47836,7 +47889,7 @@
         <v>3.7202706533198654E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>20</v>
       </c>
@@ -47990,7 +48043,7 @@
         <v>6.7408249273113263</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>21</v>
       </c>
@@ -48144,7 +48197,7 @@
         <v>1392.6036748884605</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="59" t="s">
         <v>218</v>
       </c>
@@ -48291,7 +48344,7 @@
         <v>1422.0451444394675</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="59" t="s">
         <v>219</v>
       </c>
@@ -48403,7 +48456,7 @@
         <v>1392.6036748884605</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="59" t="s">
         <v>220</v>
       </c>
@@ -48562,19 +48615,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="47"/>
+    <col min="1" max="16384" width="9.109375" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>2</v>
       </c>
@@ -48684,7 +48737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="90.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A2" s="49"/>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
@@ -48794,7 +48847,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="53"/>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -48904,7 +48957,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -49014,7 +49067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>218</v>
       </c>
@@ -49126,7 +49179,7 @@
         <v>1422.0451444394675</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>219</v>
       </c>
@@ -49238,7 +49291,7 @@
         <v>1392.6036748884605</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>220</v>
       </c>
@@ -49350,12 +49403,12 @@
         <v>29.441469551007003</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>222</v>
       </c>
@@ -49372,7 +49425,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
         <v>223</v>
       </c>
@@ -49389,7 +49442,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
         <v>224</v>
       </c>
@@ -49409,7 +49462,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
         <v>225</v>
       </c>
@@ -49426,7 +49479,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="56" t="s">
         <v>226</v>
       </c>
@@ -49443,7 +49496,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>227</v>
       </c>
@@ -49451,7 +49504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="57" t="s">
         <v>228</v>
       </c>
@@ -49465,7 +49518,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="57" t="s">
         <v>229</v>
       </c>
@@ -49476,7 +49529,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="57" t="s">
         <v>230</v>
       </c>
@@ -49487,7 +49540,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="57" t="s">
         <v>231</v>
       </c>
@@ -49498,7 +49551,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="D23" s="56" t="s">
         <v>222</v>
       </c>
@@ -49530,7 +49583,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
         <v>218</v>
       </c>
@@ -49579,7 +49632,7 @@
         <v>623.7686509206593</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="56" t="s">
         <v>219</v>
       </c>
@@ -49628,7 +49681,7 @@
         <v>562.58295928608516</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
         <v>220</v>
       </c>
@@ -49677,15 +49730,15 @@
         <v>61.185691634574212</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="56"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="56" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>232</v>
       </c>
@@ -49705,7 +49758,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="57" t="s">
         <v>233</v>
       </c>
@@ -49719,7 +49772,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="57" t="s">
         <v>234</v>
       </c>
@@ -49730,7 +49783,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="D32" s="57" t="s">
         <v>232</v>
       </c>
@@ -49741,7 +49794,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
         <v>218</v>
       </c>
@@ -49758,7 +49811,7 @@
         <v>129.11547021876675</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="56" t="s">
         <v>219</v>
       </c>
@@ -49775,7 +49828,7 @@
         <v>41.859629672601763</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="56" t="s">
         <v>220</v>
       </c>
@@ -49792,7 +49845,7 @@
         <v>87.25584054616499</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="56" t="s">
         <v>235</v>
       </c>
@@ -49803,7 +49856,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="56" t="s">
         <v>236</v>
       </c>
@@ -49811,7 +49864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D40" s="56" t="s">
         <v>235</v>
       </c>
@@ -49819,7 +49872,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="56" t="s">
         <v>218</v>
       </c>
@@ -49832,7 +49885,7 @@
         <v>129.11547021876675</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="56" t="s">
         <v>219</v>
       </c>
@@ -49845,7 +49898,2621 @@
         <v>41.859629672601763</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" s="47">
+        <f t="shared" si="14"/>
+        <v>98.914489573760136</v>
+      </c>
+      <c r="E43" s="47">
+        <f t="shared" si="15"/>
+        <v>87.25584054616499</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508ADAD1-8DB6-4A54-8653-4A8F4D758B26}">
+  <dimension ref="A1:AL43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.109375" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="48">
+        <v>19</v>
+      </c>
+      <c r="I1" s="48">
+        <v>20</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="48">
+        <v>23</v>
+      </c>
+      <c r="L1" s="48">
+        <v>24</v>
+      </c>
+      <c r="M1" s="48">
+        <v>25</v>
+      </c>
+      <c r="N1" s="48">
+        <v>26</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="48">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="48">
+        <v>50</v>
+      </c>
+      <c r="W1" s="48">
+        <v>51</v>
+      </c>
+      <c r="X1" s="48">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="48">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="48">
+        <v>61</v>
+      </c>
+      <c r="AB1" s="48">
+        <v>62</v>
+      </c>
+      <c r="AC1" s="48">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="48">
+        <v>64</v>
+      </c>
+      <c r="AE1" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" s="48">
+        <v>70</v>
+      </c>
+      <c r="AG1" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK1" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL1" s="48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL3" s="54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="V4" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z4" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA4" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB4" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC4" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD4" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE4" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG4" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH4" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI4" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ4" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK4" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL4" s="55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="47">
+        <v>1017.8010499453243</v>
+      </c>
+      <c r="E5" s="47">
+        <v>111.39260921915655</v>
+      </c>
+      <c r="F5" s="47">
+        <v>590.65084314522187</v>
+      </c>
+      <c r="G5" s="47">
+        <v>432.33087063930918</v>
+      </c>
+      <c r="H5" s="47">
+        <v>422.75385893378882</v>
+      </c>
+      <c r="I5" s="47">
+        <v>659.54684991010492</v>
+      </c>
+      <c r="J5" s="47">
+        <v>262.48888366264259</v>
+      </c>
+      <c r="K5" s="47">
+        <v>130.71514171754905</v>
+      </c>
+      <c r="L5" s="47">
+        <v>162.96152071920486</v>
+      </c>
+      <c r="M5" s="47">
+        <v>236.77745369273532</v>
+      </c>
+      <c r="N5" s="47">
+        <v>236.84737892096697</v>
+      </c>
+      <c r="O5" s="47">
+        <v>134.88153744249504</v>
+      </c>
+      <c r="P5" s="47">
+        <v>141.94839555347849</v>
+      </c>
+      <c r="Q5" s="47">
+        <v>138.51539982867783</v>
+      </c>
+      <c r="R5" s="47">
+        <v>143.72418499699694</v>
+      </c>
+      <c r="S5" s="47">
+        <v>176.28315906480486</v>
+      </c>
+      <c r="T5" s="47">
+        <v>113.25878512731565</v>
+      </c>
+      <c r="U5" s="47">
+        <v>280.20204837962672</v>
+      </c>
+      <c r="V5" s="47">
+        <v>249.16736052654463</v>
+      </c>
+      <c r="W5" s="47">
+        <v>89.114332294406239</v>
+      </c>
+      <c r="X5" s="47">
+        <v>302.34631792156449</v>
+      </c>
+      <c r="Y5" s="47">
+        <v>496.24297234716744</v>
+      </c>
+      <c r="Z5" s="47">
+        <v>204.61732899590478</v>
+      </c>
+      <c r="AA5" s="47">
+        <v>73.7471814562834</v>
+      </c>
+      <c r="AB5" s="47">
+        <v>98.187713585333441</v>
+      </c>
+      <c r="AC5" s="47">
+        <v>162.59691727090632</v>
+      </c>
+      <c r="AD5" s="47">
+        <v>121.32696297780446</v>
+      </c>
+      <c r="AE5" s="47">
+        <v>77.611926071671988</v>
+      </c>
+      <c r="AF5" s="47">
+        <v>32.482335985008824</v>
+      </c>
+      <c r="AG5" s="47">
+        <v>74.731617226499722</v>
+      </c>
+      <c r="AH5" s="47">
+        <v>113.40498193868305</v>
+      </c>
+      <c r="AI5" s="47">
+        <v>227.82576910717472</v>
+      </c>
+      <c r="AJ5" s="47">
+        <v>191.15891081190674</v>
+      </c>
+      <c r="AK5" s="47">
+        <v>294.27406041479691</v>
+      </c>
+      <c r="AL5" s="47">
+        <v>1422.0451444394675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="47">
+        <v>994.70509610401916</v>
+      </c>
+      <c r="E6" s="47">
+        <v>68.486442460958443</v>
+      </c>
+      <c r="F6" s="47">
+        <v>90.055944853378804</v>
+      </c>
+      <c r="G6" s="47">
+        <v>227.16795026188257</v>
+      </c>
+      <c r="H6" s="47">
+        <v>129.20572512854517</v>
+      </c>
+      <c r="I6" s="47">
+        <v>342.66111657426791</v>
+      </c>
+      <c r="J6" s="47">
+        <v>92.962212869485668</v>
+      </c>
+      <c r="K6" s="47">
+        <v>0</v>
+      </c>
+      <c r="L6" s="47">
+        <v>30.465633768490157</v>
+      </c>
+      <c r="M6" s="47">
+        <v>35.885963247439904</v>
+      </c>
+      <c r="N6" s="47">
+        <v>127.3333802624214</v>
+      </c>
+      <c r="O6" s="47">
+        <v>36.070427325943982</v>
+      </c>
+      <c r="P6" s="47">
+        <v>28.438433124337845</v>
+      </c>
+      <c r="Q6" s="47">
+        <v>25.223533910992909</v>
+      </c>
+      <c r="R6" s="47">
+        <v>29.319870959310652</v>
+      </c>
+      <c r="S6" s="47">
+        <v>58.144212848303376</v>
+      </c>
+      <c r="T6" s="47">
+        <v>27.32071185857065</v>
+      </c>
+      <c r="U6" s="47">
+        <v>159.11415269488779</v>
+      </c>
+      <c r="V6" s="47">
+        <v>231.72550958459578</v>
+      </c>
+      <c r="W6" s="47">
+        <v>71.870284167186014</v>
+      </c>
+      <c r="X6" s="47">
+        <v>286.82160196717797</v>
+      </c>
+      <c r="Y6" s="47">
+        <v>129.40715707386008</v>
+      </c>
+      <c r="Z6" s="47">
+        <v>96.240533081384768</v>
+      </c>
+      <c r="AA6" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="47">
+        <v>80.317707035883075</v>
+      </c>
+      <c r="AD6" s="47">
+        <v>70.238669370246711</v>
+      </c>
+      <c r="AE6" s="47">
+        <v>45.48016771285301</v>
+      </c>
+      <c r="AF6" s="47">
+        <v>12.3991994290135</v>
+      </c>
+      <c r="AG6" s="47">
+        <v>29.124059576474707</v>
+      </c>
+      <c r="AH6" s="47">
+        <v>113.40498193868305</v>
+      </c>
+      <c r="AI6" s="47">
+        <v>203.61498448282839</v>
+      </c>
+      <c r="AJ6" s="47">
+        <v>113.82965945366054</v>
+      </c>
+      <c r="AK6" s="47">
+        <v>268.68397801082187</v>
+      </c>
+      <c r="AL6" s="47">
+        <v>1392.6036748884605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="47">
+        <v>23.095953841305118</v>
+      </c>
+      <c r="E7" s="47">
+        <v>42.906166758198111</v>
+      </c>
+      <c r="F7" s="47">
+        <v>500.59489829184304</v>
+      </c>
+      <c r="G7" s="47">
+        <v>205.16292037742662</v>
+      </c>
+      <c r="H7" s="47">
+        <v>293.54813380524365</v>
+      </c>
+      <c r="I7" s="47">
+        <v>316.88573333583702</v>
+      </c>
+      <c r="J7" s="47">
+        <v>169.52667079315694</v>
+      </c>
+      <c r="K7" s="47">
+        <v>130.71514171754905</v>
+      </c>
+      <c r="L7" s="47">
+        <v>132.49588695071469</v>
+      </c>
+      <c r="M7" s="47">
+        <v>200.8914904452954</v>
+      </c>
+      <c r="N7" s="47">
+        <v>109.51399865854557</v>
+      </c>
+      <c r="O7" s="47">
+        <v>98.811110116551063</v>
+      </c>
+      <c r="P7" s="47">
+        <v>113.50996242914064</v>
+      </c>
+      <c r="Q7" s="47">
+        <v>113.29186591768492</v>
+      </c>
+      <c r="R7" s="47">
+        <v>114.40431403768629</v>
+      </c>
+      <c r="S7" s="47">
+        <v>118.13894621650149</v>
+      </c>
+      <c r="T7" s="47">
+        <v>85.938073268745001</v>
+      </c>
+      <c r="U7" s="47">
+        <v>121.08789568473892</v>
+      </c>
+      <c r="V7" s="47">
+        <v>17.441850941948843</v>
+      </c>
+      <c r="W7" s="47">
+        <v>17.244048127220225</v>
+      </c>
+      <c r="X7" s="47">
+        <v>15.524715954386522</v>
+      </c>
+      <c r="Y7" s="47">
+        <v>366.83581527330739</v>
+      </c>
+      <c r="Z7" s="47">
+        <v>108.37679591452002</v>
+      </c>
+      <c r="AA7" s="47">
+        <v>73.7471814562834</v>
+      </c>
+      <c r="AB7" s="47">
+        <v>98.187713585333441</v>
+      </c>
+      <c r="AC7" s="47">
+        <v>82.279210235023243</v>
+      </c>
+      <c r="AD7" s="47">
+        <v>51.088293607557745</v>
+      </c>
+      <c r="AE7" s="47">
+        <v>32.131758358818978</v>
+      </c>
+      <c r="AF7" s="47">
+        <v>20.083136555995324</v>
+      </c>
+      <c r="AG7" s="47">
+        <v>45.607557650025015</v>
+      </c>
+      <c r="AH7" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="47">
+        <v>24.210784624346331</v>
+      </c>
+      <c r="AJ7" s="47">
+        <v>77.329251358246196</v>
+      </c>
+      <c r="AK7" s="47">
+        <v>25.590082403975032</v>
+      </c>
+      <c r="AL7" s="47">
+        <v>29.441469551007003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="47">
+        <v>0.125</v>
+      </c>
+      <c r="U11" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="AI11" s="47">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="O12" s="47">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q12" s="47">
+        <v>0.35</v>
+      </c>
+      <c r="U12" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="AI12" s="47">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="M13" s="47">
+        <v>0.12</v>
+      </c>
+      <c r="O13" s="47">
+        <v>0.12</v>
+      </c>
+      <c r="Q13" s="47">
+        <v>0.43</v>
+      </c>
+      <c r="U13" s="47">
+        <v>0.26</v>
+      </c>
+      <c r="AI13" s="47">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="47">
+        <v>0.15</v>
+      </c>
+      <c r="Q14" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="U14" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="AI14" s="47">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="N15" s="47">
+        <v>0.182</v>
+      </c>
+      <c r="Q15" s="47">
+        <v>0.21</v>
+      </c>
+      <c r="U15" s="47">
+        <v>0.182</v>
+      </c>
+      <c r="AI15" s="47">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="U16" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q17" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="U17" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="AI17" s="47">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q18" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="U18" s="47">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="D23" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="I23" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" s="57" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A24" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="47">
+        <f>SUMPRODUCT(D5:AL5,D$11:AL$11)</f>
+        <v>623.7686509206593</v>
+      </c>
+      <c r="E24" s="47">
+        <f>SUMPRODUCT(D5:AL5,D$12:AL$12)</f>
+        <v>196.01478310011746</v>
+      </c>
+      <c r="F24" s="47">
+        <f>SUMPRODUCT(D5:AL5,D$13:AL$13)</f>
+        <v>192.96103727876428</v>
+      </c>
+      <c r="G24" s="47">
+        <f>SUMPRODUCT(D5:AL5,D$14:AL$14)</f>
+        <v>224.99908386872568</v>
+      </c>
+      <c r="H24" s="47">
+        <f>SUMPRODUCT($D5:$AL5,$D$15:$AL$15)</f>
+        <v>220.92848467970833</v>
+      </c>
+      <c r="I24" s="47">
+        <f>SUMPRODUCT($D5:$AL5,$D$16:$AL$16)</f>
+        <v>280.20204837962672</v>
+      </c>
+      <c r="J24" s="47">
+        <f>SUMPRODUCT($D5:$AL5,$D$17:$AL$17)</f>
+        <v>193.64584032241669</v>
+      </c>
+      <c r="K24" s="47">
+        <f>SUMPRODUCT($D5:$AL5,$D$18:$AL$18)</f>
+        <v>173.93706196641506</v>
+      </c>
+      <c r="L24" s="47">
+        <f>SUMPRODUCT($D5:$AL5,$D$19:$AL$19)</f>
+        <v>137.17706496918072</v>
+      </c>
+      <c r="M24" s="47">
+        <f>SUMPRODUCT($D5:$AL5,$D$20:$AL$20)</f>
+        <v>121.0538754683528</v>
+      </c>
+      <c r="O24" s="47">
+        <f>SUMPRODUCT($D5:$AL5,$D$11:$AL$11)</f>
+        <v>623.7686509206593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A25" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="47">
+        <f t="shared" ref="D25:D26" si="0">SUMPRODUCT(D6:AL6,D$11:AL$11)</f>
+        <v>562.58295928608516</v>
+      </c>
+      <c r="E25" s="47">
+        <f t="shared" ref="E25:E26" si="1">SUMPRODUCT(D6:AL6,D$12:AL$12)</f>
+        <v>98.507429743849002</v>
+      </c>
+      <c r="F25" s="47">
+        <f t="shared" ref="F25:F26" si="2">SUMPRODUCT(D6:AL6,D$13:AL$13)</f>
+        <v>75.103615065001833</v>
+      </c>
+      <c r="G25" s="47">
+        <f t="shared" ref="G25:G26" si="3">SUMPRODUCT(D6:AL6,D$14:AL$14)</f>
+        <v>145.48118381779108</v>
+      </c>
+      <c r="H25" s="47">
+        <f t="shared" ref="H25:H26" si="4">SUMPRODUCT($D6:$AL6,$D$15:$AL$15)</f>
+        <v>144.78122146267214</v>
+      </c>
+      <c r="I25" s="47">
+        <f t="shared" ref="I25:I26" si="5">SUMPRODUCT($D6:$AL6,$D$16:$AL$16)</f>
+        <v>159.11415269488779</v>
+      </c>
+      <c r="J25" s="47">
+        <f t="shared" ref="J25:J26" si="6">SUMPRODUCT($D6:$AL6,$D$17:$AL$17)</f>
+        <v>105.51909283932252</v>
+      </c>
+      <c r="K25" s="47">
+        <f t="shared" ref="K25:K26" si="7">SUMPRODUCT($D6:$AL6,$D$18:$AL$18)</f>
+        <v>58.696188606966629</v>
+      </c>
+      <c r="L25" s="47">
+        <f t="shared" ref="L25:L26" si="8">SUMPRODUCT($D6:$AL6,$D$19:$AL$19)</f>
+        <v>49.476038114724304</v>
+      </c>
+      <c r="M25" s="47">
+        <f t="shared" ref="M25:M26" si="9">SUMPRODUCT($D6:$AL6,$D$20:$AL$20)</f>
+        <v>34.243221230479222</v>
+      </c>
+      <c r="O25" s="47">
+        <f t="shared" ref="O25:O26" si="10">SUMPRODUCT($D6:$AL6,$D$11:$AL$11)</f>
+        <v>562.58295928608516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A26" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="47">
+        <f t="shared" si="0"/>
+        <v>61.185691634574212</v>
+      </c>
+      <c r="E26" s="47">
+        <f t="shared" si="1"/>
+        <v>97.507353356268439</v>
+      </c>
+      <c r="F26" s="47">
+        <f t="shared" si="2"/>
+        <v>117.85742221376245</v>
+      </c>
+      <c r="G26" s="47">
+        <f t="shared" si="3"/>
+        <v>79.517900050934614</v>
+      </c>
+      <c r="H26" s="47">
+        <f t="shared" si="4"/>
+        <v>76.147263217036169</v>
+      </c>
+      <c r="I26" s="47">
+        <f t="shared" si="5"/>
+        <v>121.08789568473892</v>
+      </c>
+      <c r="J26" s="47">
+        <f t="shared" si="6"/>
+        <v>88.126747483094135</v>
+      </c>
+      <c r="K26" s="47">
+        <f t="shared" si="7"/>
+        <v>115.24087335944841</v>
+      </c>
+      <c r="L26" s="47">
+        <f t="shared" si="8"/>
+        <v>87.701026854456401</v>
+      </c>
+      <c r="M26" s="47">
+        <f t="shared" si="9"/>
+        <v>86.810654237873578</v>
+      </c>
+      <c r="O26" s="47">
+        <f t="shared" si="10"/>
+        <v>61.185691634574212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A27" s="56"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A28" s="56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A29" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="E29" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="G29" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="H29" s="47">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A30" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="I30" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="J30" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="K30" s="47">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A31" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="M31" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="D32" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="47">
+        <f>SUMPRODUCT($D24:$M24,$D$29:$M$29)</f>
+        <v>291.73440796959505</v>
+      </c>
+      <c r="E33" s="47">
+        <f>SUMPRODUCT($D24:$M24,$D$30:$M$30)</f>
+        <v>231.9967497620213</v>
+      </c>
+      <c r="F33" s="47">
+        <f>SUMPRODUCT($D24:$M24,$D$31:$M$31)</f>
+        <v>129.11547021876675</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="47">
+        <f t="shared" ref="D34:D35" si="11">SUMPRODUCT($D25:$M25,$D$29:$M$29)</f>
+        <v>205.29128187507985</v>
+      </c>
+      <c r="E34" s="47">
+        <f t="shared" ref="E34:E35" si="12">SUMPRODUCT($D25:$M25,$D$30:$M$30)</f>
+        <v>120.61089670901619</v>
+      </c>
+      <c r="F34" s="47">
+        <f t="shared" ref="F34:F35" si="13">SUMPRODUCT($D25:$M25,$D$31:$M$31)</f>
+        <v>41.859629672601763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="47">
+        <f t="shared" si="11"/>
+        <v>86.443126094515179</v>
+      </c>
+      <c r="E35" s="47">
+        <f t="shared" si="12"/>
+        <v>111.38585305300509</v>
+      </c>
+      <c r="F35" s="47">
+        <f t="shared" si="13"/>
+        <v>87.25584054616499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F38" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D40" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="56" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" s="47">
+        <f>SUMPRODUCT($D33:$F33,$D$37:$F$37)</f>
+        <v>261.86557886580817</v>
+      </c>
+      <c r="E41" s="47">
+        <f>SUMPRODUCT($D33:$F33,$D$38:$F$38)</f>
+        <v>129.11547021876675</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" s="47">
+        <f t="shared" ref="D42:D43" si="14">SUMPRODUCT($D34:$F34,$D$37:$F$37)</f>
+        <v>162.95108929204801</v>
+      </c>
+      <c r="E42" s="47">
+        <f t="shared" ref="E42:E43" si="15">SUMPRODUCT($D34:$F34,$D$38:$F$38)</f>
+        <v>41.859629672601763</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" s="47">
+        <f t="shared" si="14"/>
+        <v>98.914489573760136</v>
+      </c>
+      <c r="E43" s="47">
+        <f t="shared" si="15"/>
+        <v>87.25584054616499</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341A2429-4C82-4099-9A36-B31047FB1A99}">
+  <dimension ref="A1:AL43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.109375" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="48">
+        <v>19</v>
+      </c>
+      <c r="I1" s="48">
+        <v>20</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="48">
+        <v>23</v>
+      </c>
+      <c r="L1" s="48">
+        <v>24</v>
+      </c>
+      <c r="M1" s="48">
+        <v>25</v>
+      </c>
+      <c r="N1" s="48">
+        <v>26</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="48">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="48">
+        <v>50</v>
+      </c>
+      <c r="W1" s="48">
+        <v>51</v>
+      </c>
+      <c r="X1" s="48">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="48">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="48">
+        <v>61</v>
+      </c>
+      <c r="AB1" s="48">
+        <v>62</v>
+      </c>
+      <c r="AC1" s="48">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="48">
+        <v>64</v>
+      </c>
+      <c r="AE1" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" s="48">
+        <v>70</v>
+      </c>
+      <c r="AG1" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK1" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL1" s="48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL3" s="54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="V4" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z4" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA4" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB4" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC4" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD4" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE4" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG4" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH4" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI4" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ4" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK4" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL4" s="55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="47">
+        <v>1017.8010499453243</v>
+      </c>
+      <c r="E5" s="47">
+        <v>111.39260921915655</v>
+      </c>
+      <c r="F5" s="47">
+        <v>590.65084314522187</v>
+      </c>
+      <c r="G5" s="47">
+        <v>432.33087063930918</v>
+      </c>
+      <c r="H5" s="47">
+        <v>422.75385893378882</v>
+      </c>
+      <c r="I5" s="47">
+        <v>659.54684991010492</v>
+      </c>
+      <c r="J5" s="47">
+        <v>262.48888366264259</v>
+      </c>
+      <c r="K5" s="47">
+        <v>130.71514171754905</v>
+      </c>
+      <c r="L5" s="47">
+        <v>162.96152071920486</v>
+      </c>
+      <c r="M5" s="47">
+        <v>236.77745369273532</v>
+      </c>
+      <c r="N5" s="47">
+        <v>236.84737892096697</v>
+      </c>
+      <c r="O5" s="47">
+        <v>134.88153744249504</v>
+      </c>
+      <c r="P5" s="47">
+        <v>141.94839555347849</v>
+      </c>
+      <c r="Q5" s="47">
+        <v>138.51539982867783</v>
+      </c>
+      <c r="R5" s="47">
+        <v>143.72418499699694</v>
+      </c>
+      <c r="S5" s="47">
+        <v>176.28315906480486</v>
+      </c>
+      <c r="T5" s="47">
+        <v>113.25878512731565</v>
+      </c>
+      <c r="U5" s="47">
+        <v>280.20204837962672</v>
+      </c>
+      <c r="V5" s="47">
+        <v>249.16736052654463</v>
+      </c>
+      <c r="W5" s="47">
+        <v>89.114332294406239</v>
+      </c>
+      <c r="X5" s="47">
+        <v>302.34631792156449</v>
+      </c>
+      <c r="Y5" s="47">
+        <v>496.24297234716744</v>
+      </c>
+      <c r="Z5" s="47">
+        <v>204.61732899590478</v>
+      </c>
+      <c r="AA5" s="47">
+        <v>73.7471814562834</v>
+      </c>
+      <c r="AB5" s="47">
+        <v>98.187713585333441</v>
+      </c>
+      <c r="AC5" s="47">
+        <v>162.59691727090632</v>
+      </c>
+      <c r="AD5" s="47">
+        <v>121.32696297780446</v>
+      </c>
+      <c r="AE5" s="47">
+        <v>77.611926071671988</v>
+      </c>
+      <c r="AF5" s="47">
+        <v>32.482335985008824</v>
+      </c>
+      <c r="AG5" s="47">
+        <v>74.731617226499722</v>
+      </c>
+      <c r="AH5" s="47">
+        <v>113.40498193868305</v>
+      </c>
+      <c r="AI5" s="47">
+        <v>227.82576910717472</v>
+      </c>
+      <c r="AJ5" s="47">
+        <v>191.15891081190674</v>
+      </c>
+      <c r="AK5" s="47">
+        <v>294.27406041479691</v>
+      </c>
+      <c r="AL5" s="47">
+        <v>1422.0451444394675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="47">
+        <v>994.70509610401916</v>
+      </c>
+      <c r="E6" s="47">
+        <v>68.486442460958443</v>
+      </c>
+      <c r="F6" s="47">
+        <v>90.055944853378804</v>
+      </c>
+      <c r="G6" s="47">
+        <v>227.16795026188257</v>
+      </c>
+      <c r="H6" s="47">
+        <v>129.20572512854517</v>
+      </c>
+      <c r="I6" s="47">
+        <v>342.66111657426791</v>
+      </c>
+      <c r="J6" s="47">
+        <v>92.962212869485668</v>
+      </c>
+      <c r="K6" s="47">
+        <v>0</v>
+      </c>
+      <c r="L6" s="47">
+        <v>30.465633768490157</v>
+      </c>
+      <c r="M6" s="47">
+        <v>35.885963247439904</v>
+      </c>
+      <c r="N6" s="47">
+        <v>127.3333802624214</v>
+      </c>
+      <c r="O6" s="47">
+        <v>36.070427325943982</v>
+      </c>
+      <c r="P6" s="47">
+        <v>28.438433124337845</v>
+      </c>
+      <c r="Q6" s="47">
+        <v>25.223533910992909</v>
+      </c>
+      <c r="R6" s="47">
+        <v>29.319870959310652</v>
+      </c>
+      <c r="S6" s="47">
+        <v>58.144212848303376</v>
+      </c>
+      <c r="T6" s="47">
+        <v>27.32071185857065</v>
+      </c>
+      <c r="U6" s="47">
+        <v>159.11415269488779</v>
+      </c>
+      <c r="V6" s="47">
+        <v>231.72550958459578</v>
+      </c>
+      <c r="W6" s="47">
+        <v>71.870284167186014</v>
+      </c>
+      <c r="X6" s="47">
+        <v>286.82160196717797</v>
+      </c>
+      <c r="Y6" s="47">
+        <v>129.40715707386008</v>
+      </c>
+      <c r="Z6" s="47">
+        <v>96.240533081384768</v>
+      </c>
+      <c r="AA6" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="47">
+        <v>80.317707035883075</v>
+      </c>
+      <c r="AD6" s="47">
+        <v>70.238669370246711</v>
+      </c>
+      <c r="AE6" s="47">
+        <v>45.48016771285301</v>
+      </c>
+      <c r="AF6" s="47">
+        <v>12.3991994290135</v>
+      </c>
+      <c r="AG6" s="47">
+        <v>29.124059576474707</v>
+      </c>
+      <c r="AH6" s="47">
+        <v>113.40498193868305</v>
+      </c>
+      <c r="AI6" s="47">
+        <v>203.61498448282839</v>
+      </c>
+      <c r="AJ6" s="47">
+        <v>113.82965945366054</v>
+      </c>
+      <c r="AK6" s="47">
+        <v>268.68397801082187</v>
+      </c>
+      <c r="AL6" s="47">
+        <v>1392.6036748884605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="47">
+        <v>23.095953841305118</v>
+      </c>
+      <c r="E7" s="47">
+        <v>42.906166758198111</v>
+      </c>
+      <c r="F7" s="47">
+        <v>500.59489829184304</v>
+      </c>
+      <c r="G7" s="47">
+        <v>205.16292037742662</v>
+      </c>
+      <c r="H7" s="47">
+        <v>293.54813380524365</v>
+      </c>
+      <c r="I7" s="47">
+        <v>316.88573333583702</v>
+      </c>
+      <c r="J7" s="47">
+        <v>169.52667079315694</v>
+      </c>
+      <c r="K7" s="47">
+        <v>130.71514171754905</v>
+      </c>
+      <c r="L7" s="47">
+        <v>132.49588695071469</v>
+      </c>
+      <c r="M7" s="47">
+        <v>200.8914904452954</v>
+      </c>
+      <c r="N7" s="47">
+        <v>109.51399865854557</v>
+      </c>
+      <c r="O7" s="47">
+        <v>98.811110116551063</v>
+      </c>
+      <c r="P7" s="47">
+        <v>113.50996242914064</v>
+      </c>
+      <c r="Q7" s="47">
+        <v>113.29186591768492</v>
+      </c>
+      <c r="R7" s="47">
+        <v>114.40431403768629</v>
+      </c>
+      <c r="S7" s="47">
+        <v>118.13894621650149</v>
+      </c>
+      <c r="T7" s="47">
+        <v>85.938073268745001</v>
+      </c>
+      <c r="U7" s="47">
+        <v>121.08789568473892</v>
+      </c>
+      <c r="V7" s="47">
+        <v>17.441850941948843</v>
+      </c>
+      <c r="W7" s="47">
+        <v>17.244048127220225</v>
+      </c>
+      <c r="X7" s="47">
+        <v>15.524715954386522</v>
+      </c>
+      <c r="Y7" s="47">
+        <v>366.83581527330739</v>
+      </c>
+      <c r="Z7" s="47">
+        <v>108.37679591452002</v>
+      </c>
+      <c r="AA7" s="47">
+        <v>73.7471814562834</v>
+      </c>
+      <c r="AB7" s="47">
+        <v>98.187713585333441</v>
+      </c>
+      <c r="AC7" s="47">
+        <v>82.279210235023243</v>
+      </c>
+      <c r="AD7" s="47">
+        <v>51.088293607557745</v>
+      </c>
+      <c r="AE7" s="47">
+        <v>32.131758358818978</v>
+      </c>
+      <c r="AF7" s="47">
+        <v>20.083136555995324</v>
+      </c>
+      <c r="AG7" s="47">
+        <v>45.607557650025015</v>
+      </c>
+      <c r="AH7" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="47">
+        <v>24.210784624346331</v>
+      </c>
+      <c r="AJ7" s="47">
+        <v>77.329251358246196</v>
+      </c>
+      <c r="AK7" s="47">
+        <v>25.590082403975032</v>
+      </c>
+      <c r="AL7" s="47">
+        <v>29.441469551007003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="47">
+        <v>0.125</v>
+      </c>
+      <c r="U11" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="AI11" s="47">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="O12" s="47">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q12" s="47">
+        <v>0.35</v>
+      </c>
+      <c r="U12" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="AI12" s="47">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="M13" s="47">
+        <v>0.12</v>
+      </c>
+      <c r="O13" s="47">
+        <v>0.12</v>
+      </c>
+      <c r="Q13" s="47">
+        <v>0.43</v>
+      </c>
+      <c r="U13" s="47">
+        <v>0.26</v>
+      </c>
+      <c r="AI13" s="47">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="47">
+        <v>0.15</v>
+      </c>
+      <c r="Q14" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="U14" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="AI14" s="47">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="N15" s="47">
+        <v>0.182</v>
+      </c>
+      <c r="Q15" s="47">
+        <v>0.21</v>
+      </c>
+      <c r="U15" s="47">
+        <v>0.182</v>
+      </c>
+      <c r="AI15" s="47">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="U16" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q17" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="U17" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="AI17" s="47">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q18" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="U18" s="47">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="D23" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="I23" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" s="57" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A24" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="47">
+        <f>SUMPRODUCT(D5:AL5,D$11:AL$11)</f>
+        <v>623.7686509206593</v>
+      </c>
+      <c r="E24" s="47">
+        <f>SUMPRODUCT(D5:AL5,D$12:AL$12)</f>
+        <v>196.01478310011746</v>
+      </c>
+      <c r="F24" s="47">
+        <f>SUMPRODUCT(D5:AL5,D$13:AL$13)</f>
+        <v>192.96103727876428</v>
+      </c>
+      <c r="G24" s="47">
+        <f>SUMPRODUCT(D5:AL5,D$14:AL$14)</f>
+        <v>224.99908386872568</v>
+      </c>
+      <c r="H24" s="47">
+        <f>SUMPRODUCT($D5:$AL5,$D$15:$AL$15)</f>
+        <v>220.92848467970833</v>
+      </c>
+      <c r="I24" s="47">
+        <f>SUMPRODUCT($D5:$AL5,$D$16:$AL$16)</f>
+        <v>280.20204837962672</v>
+      </c>
+      <c r="J24" s="47">
+        <f>SUMPRODUCT($D5:$AL5,$D$17:$AL$17)</f>
+        <v>193.64584032241669</v>
+      </c>
+      <c r="K24" s="47">
+        <f>SUMPRODUCT($D5:$AL5,$D$18:$AL$18)</f>
+        <v>173.93706196641506</v>
+      </c>
+      <c r="L24" s="47">
+        <f>SUMPRODUCT($D5:$AL5,$D$19:$AL$19)</f>
+        <v>137.17706496918072</v>
+      </c>
+      <c r="M24" s="47">
+        <f>SUMPRODUCT($D5:$AL5,$D$20:$AL$20)</f>
+        <v>121.0538754683528</v>
+      </c>
+      <c r="O24" s="47">
+        <f>SUMPRODUCT($D5:$AL5,$D$11:$AL$11)</f>
+        <v>623.7686509206593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A25" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="47">
+        <f t="shared" ref="D25:D26" si="0">SUMPRODUCT(D6:AL6,D$11:AL$11)</f>
+        <v>562.58295928608516</v>
+      </c>
+      <c r="E25" s="47">
+        <f t="shared" ref="E25:E26" si="1">SUMPRODUCT(D6:AL6,D$12:AL$12)</f>
+        <v>98.507429743849002</v>
+      </c>
+      <c r="F25" s="47">
+        <f t="shared" ref="F25:F26" si="2">SUMPRODUCT(D6:AL6,D$13:AL$13)</f>
+        <v>75.103615065001833</v>
+      </c>
+      <c r="G25" s="47">
+        <f t="shared" ref="G25:G26" si="3">SUMPRODUCT(D6:AL6,D$14:AL$14)</f>
+        <v>145.48118381779108</v>
+      </c>
+      <c r="H25" s="47">
+        <f t="shared" ref="H25:H26" si="4">SUMPRODUCT($D6:$AL6,$D$15:$AL$15)</f>
+        <v>144.78122146267214</v>
+      </c>
+      <c r="I25" s="47">
+        <f t="shared" ref="I25:I26" si="5">SUMPRODUCT($D6:$AL6,$D$16:$AL$16)</f>
+        <v>159.11415269488779</v>
+      </c>
+      <c r="J25" s="47">
+        <f t="shared" ref="J25:J26" si="6">SUMPRODUCT($D6:$AL6,$D$17:$AL$17)</f>
+        <v>105.51909283932252</v>
+      </c>
+      <c r="K25" s="47">
+        <f t="shared" ref="K25:K26" si="7">SUMPRODUCT($D6:$AL6,$D$18:$AL$18)</f>
+        <v>58.696188606966629</v>
+      </c>
+      <c r="L25" s="47">
+        <f t="shared" ref="L25:L26" si="8">SUMPRODUCT($D6:$AL6,$D$19:$AL$19)</f>
+        <v>49.476038114724304</v>
+      </c>
+      <c r="M25" s="47">
+        <f t="shared" ref="M25:M26" si="9">SUMPRODUCT($D6:$AL6,$D$20:$AL$20)</f>
+        <v>34.243221230479222</v>
+      </c>
+      <c r="O25" s="47">
+        <f t="shared" ref="O25:O26" si="10">SUMPRODUCT($D6:$AL6,$D$11:$AL$11)</f>
+        <v>562.58295928608516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A26" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="47">
+        <f t="shared" si="0"/>
+        <v>61.185691634574212</v>
+      </c>
+      <c r="E26" s="47">
+        <f t="shared" si="1"/>
+        <v>97.507353356268439</v>
+      </c>
+      <c r="F26" s="47">
+        <f t="shared" si="2"/>
+        <v>117.85742221376245</v>
+      </c>
+      <c r="G26" s="47">
+        <f t="shared" si="3"/>
+        <v>79.517900050934614</v>
+      </c>
+      <c r="H26" s="47">
+        <f t="shared" si="4"/>
+        <v>76.147263217036169</v>
+      </c>
+      <c r="I26" s="47">
+        <f t="shared" si="5"/>
+        <v>121.08789568473892</v>
+      </c>
+      <c r="J26" s="47">
+        <f t="shared" si="6"/>
+        <v>88.126747483094135</v>
+      </c>
+      <c r="K26" s="47">
+        <f t="shared" si="7"/>
+        <v>115.24087335944841</v>
+      </c>
+      <c r="L26" s="47">
+        <f t="shared" si="8"/>
+        <v>87.701026854456401</v>
+      </c>
+      <c r="M26" s="47">
+        <f t="shared" si="9"/>
+        <v>86.810654237873578</v>
+      </c>
+      <c r="O26" s="47">
+        <f t="shared" si="10"/>
+        <v>61.185691634574212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A27" s="56"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A28" s="56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A29" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="E29" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="G29" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="H29" s="47">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A30" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="I30" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="J30" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="K30" s="47">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A31" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="M31" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="D32" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="47">
+        <f>SUMPRODUCT($D24:$M24,$D$29:$M$29)</f>
+        <v>291.73440796959505</v>
+      </c>
+      <c r="E33" s="47">
+        <f>SUMPRODUCT($D24:$M24,$D$30:$M$30)</f>
+        <v>231.9967497620213</v>
+      </c>
+      <c r="F33" s="47">
+        <f>SUMPRODUCT($D24:$M24,$D$31:$M$31)</f>
+        <v>129.11547021876675</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="47">
+        <f t="shared" ref="D34:D35" si="11">SUMPRODUCT($D25:$M25,$D$29:$M$29)</f>
+        <v>205.29128187507985</v>
+      </c>
+      <c r="E34" s="47">
+        <f t="shared" ref="E34:E35" si="12">SUMPRODUCT($D25:$M25,$D$30:$M$30)</f>
+        <v>120.61089670901619</v>
+      </c>
+      <c r="F34" s="47">
+        <f t="shared" ref="F34:F35" si="13">SUMPRODUCT($D25:$M25,$D$31:$M$31)</f>
+        <v>41.859629672601763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="47">
+        <f t="shared" si="11"/>
+        <v>86.443126094515179</v>
+      </c>
+      <c r="E35" s="47">
+        <f t="shared" si="12"/>
+        <v>111.38585305300509</v>
+      </c>
+      <c r="F35" s="47">
+        <f t="shared" si="13"/>
+        <v>87.25584054616499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F38" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D40" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="56" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" s="47">
+        <f>SUMPRODUCT($D33:$F33,$D$37:$F$37)</f>
+        <v>261.86557886580817</v>
+      </c>
+      <c r="E41" s="47">
+        <f>SUMPRODUCT($D33:$F33,$D$38:$F$38)</f>
+        <v>129.11547021876675</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" s="47">
+        <f t="shared" ref="D42:D43" si="14">SUMPRODUCT($D34:$F34,$D$37:$F$37)</f>
+        <v>162.95108929204801</v>
+      </c>
+      <c r="E42" s="47">
+        <f t="shared" ref="E42:E43" si="15">SUMPRODUCT($D34:$F34,$D$38:$F$38)</f>
+        <v>41.859629672601763</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="56" t="s">
         <v>220</v>
       </c>

--- a/India-Input-Output Analysis--Employment Estimates--09132019.xlsx
+++ b/India-Input-Output Analysis--Employment Estimates--09132019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Problem-Sets--753\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D2A656-C8B3-49A5-82DA-E7E31730DF47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CDF04B-85B3-42A3-A649-07396F37219F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27060" yWindow="5355" windowWidth="13830" windowHeight="7170" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw I-O data" sheetId="1" r:id="rId1"/>
@@ -48618,8 +48618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49925,8 +49925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508ADAD1-8DB6-4A54-8653-4A8F4D758B26}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50723,13 +50723,13 @@
         <v>0.5</v>
       </c>
       <c r="K11" s="47">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="U11" s="47">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI11" s="47">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
@@ -50737,16 +50737,16 @@
         <v>223</v>
       </c>
       <c r="O12" s="47">
-        <v>0.17499999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Q12" s="47">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="U12" s="47">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="AI12" s="47">
-        <v>0.17499999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
@@ -50754,19 +50754,19 @@
         <v>224</v>
       </c>
       <c r="M13" s="47">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="O13" s="47">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="Q13" s="47">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="U13" s="47">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="AI13" s="47">
-        <v>7.0000000000000007E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
@@ -50791,16 +50791,16 @@
         <v>226</v>
       </c>
       <c r="N15" s="47">
-        <v>0.182</v>
+        <v>0.35</v>
       </c>
       <c r="Q15" s="47">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="U15" s="47">
-        <v>0.182</v>
+        <v>0.25</v>
       </c>
       <c r="AI15" s="47">
-        <v>0.42899999999999999</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
@@ -50816,13 +50816,13 @@
         <v>228</v>
       </c>
       <c r="Q17" s="47">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="U17" s="47">
         <v>0.2</v>
       </c>
       <c r="AI17" s="47">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
@@ -50830,10 +50830,10 @@
         <v>229</v>
       </c>
       <c r="Q18" s="47">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="U18" s="47">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
@@ -50841,10 +50841,10 @@
         <v>230</v>
       </c>
       <c r="E19" s="47">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="L19" s="47">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
@@ -50852,10 +50852,10 @@
         <v>231</v>
       </c>
       <c r="E20" s="47">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K20" s="47">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
@@ -50896,15 +50896,15 @@
       </c>
       <c r="D24" s="47">
         <f>SUMPRODUCT(D5:AL5,D$11:AL$11)</f>
-        <v>623.7686509206593</v>
+        <v>611.24772593919215</v>
       </c>
       <c r="E24" s="47">
         <f>SUMPRODUCT(D5:AL5,D$12:AL$12)</f>
-        <v>196.01478310011746</v>
+        <v>195.35618868949359</v>
       </c>
       <c r="F24" s="47">
         <f>SUMPRODUCT(D5:AL5,D$13:AL$13)</f>
-        <v>192.96103727876428</v>
+        <v>194.11898841828105</v>
       </c>
       <c r="G24" s="47">
         <f>SUMPRODUCT(D5:AL5,D$14:AL$14)</f>
@@ -50912,7 +50912,7 @@
       </c>
       <c r="H24" s="47">
         <f>SUMPRODUCT($D5:$AL5,$D$15:$AL$15)</f>
-        <v>220.92848467970833</v>
+        <v>221.74981004049079</v>
       </c>
       <c r="I24" s="47">
         <f>SUMPRODUCT($D5:$AL5,$D$16:$AL$16)</f>
@@ -50920,23 +50920,23 @@
       </c>
       <c r="J24" s="47">
         <f>SUMPRODUCT($D5:$AL5,$D$17:$AL$17)</f>
-        <v>193.64584032241669</v>
+        <v>175.78376646671728</v>
       </c>
       <c r="K24" s="47">
         <f>SUMPRODUCT($D5:$AL5,$D$18:$AL$18)</f>
-        <v>173.93706196641506</v>
+        <v>209.35872410415226</v>
       </c>
       <c r="L24" s="47">
         <f>SUMPRODUCT($D5:$AL5,$D$19:$AL$19)</f>
-        <v>137.17706496918072</v>
+        <v>124.28483709416864</v>
       </c>
       <c r="M24" s="47">
         <f>SUMPRODUCT($D5:$AL5,$D$20:$AL$20)</f>
-        <v>121.0538754683528</v>
+        <v>124.91838196803128</v>
       </c>
       <c r="O24" s="47">
         <f>SUMPRODUCT($D5:$AL5,$D$11:$AL$11)</f>
-        <v>623.7686509206593</v>
+        <v>611.24772593919215</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
@@ -50945,15 +50945,15 @@
       </c>
       <c r="D25" s="47">
         <f t="shared" ref="D25:D26" si="0">SUMPRODUCT(D6:AL6,D$11:AL$11)</f>
-        <v>562.58295928608516</v>
+        <v>551.7619186286671</v>
       </c>
       <c r="E25" s="47">
         <f t="shared" ref="E25:E26" si="1">SUMPRODUCT(D6:AL6,D$12:AL$12)</f>
-        <v>98.507429743849002</v>
+        <v>106.00577460366327</v>
       </c>
       <c r="F25" s="47">
         <f t="shared" ref="F25:F26" si="2">SUMPRODUCT(D6:AL6,D$13:AL$13)</f>
-        <v>75.103615065001833</v>
+        <v>86.969978311873319</v>
       </c>
       <c r="G25" s="47">
         <f t="shared" ref="G25:G26" si="3">SUMPRODUCT(D6:AL6,D$14:AL$14)</f>
@@ -50961,7 +50961,7 @@
       </c>
       <c r="H25" s="47">
         <f t="shared" ref="H25:H26" si="4">SUMPRODUCT($D6:$AL6,$D$15:$AL$15)</f>
-        <v>144.78122146267214</v>
+        <v>121.19335241574191</v>
       </c>
       <c r="I25" s="47">
         <f t="shared" ref="I25:I26" si="5">SUMPRODUCT($D6:$AL6,$D$16:$AL$16)</f>
@@ -50969,23 +50969,23 @@
       </c>
       <c r="J25" s="47">
         <f t="shared" ref="J25:J26" si="6">SUMPRODUCT($D6:$AL6,$D$17:$AL$17)</f>
-        <v>105.51909283932252</v>
+        <v>69.840802724955438</v>
       </c>
       <c r="K25" s="47">
         <f t="shared" ref="K25:K26" si="7">SUMPRODUCT($D6:$AL6,$D$18:$AL$18)</f>
-        <v>58.696188606966629</v>
+        <v>92.168843302940346</v>
       </c>
       <c r="L25" s="47">
         <f t="shared" ref="L25:L26" si="8">SUMPRODUCT($D6:$AL6,$D$19:$AL$19)</f>
-        <v>49.476038114724304</v>
+        <v>58.981240287841374</v>
       </c>
       <c r="M25" s="47">
         <f t="shared" ref="M25:M26" si="9">SUMPRODUCT($D6:$AL6,$D$20:$AL$20)</f>
-        <v>34.243221230479222</v>
+        <v>20.545932738287533</v>
       </c>
       <c r="O25" s="47">
         <f t="shared" ref="O25:O26" si="10">SUMPRODUCT($D6:$AL6,$D$11:$AL$11)</f>
-        <v>562.58295928608516</v>
+        <v>551.7619186286671</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
@@ -50994,15 +50994,15 @@
       </c>
       <c r="D26" s="47">
         <f t="shared" si="0"/>
-        <v>61.185691634574212</v>
+        <v>59.485807310525161</v>
       </c>
       <c r="E26" s="47">
         <f t="shared" si="1"/>
-        <v>97.507353356268439</v>
+        <v>89.350414085830309</v>
       </c>
       <c r="F26" s="47">
         <f t="shared" si="2"/>
-        <v>117.85742221376245</v>
+        <v>107.14901010640769</v>
       </c>
       <c r="G26" s="47">
         <f t="shared" si="3"/>
@@ -51010,7 +51010,7 @@
       </c>
       <c r="H26" s="47">
         <f t="shared" si="4"/>
-        <v>76.147263217036169</v>
+        <v>100.55645762474884</v>
       </c>
       <c r="I26" s="47">
         <f t="shared" si="5"/>
@@ -51018,23 +51018,23 @@
       </c>
       <c r="J26" s="47">
         <f t="shared" si="6"/>
-        <v>88.126747483094135</v>
+        <v>105.94296374176186</v>
       </c>
       <c r="K26" s="47">
         <f t="shared" si="7"/>
-        <v>115.24087335944841</v>
+        <v>117.18988080121193</v>
       </c>
       <c r="L26" s="47">
         <f t="shared" si="8"/>
-        <v>87.701026854456401</v>
+        <v>65.303596806327249</v>
       </c>
       <c r="M26" s="47">
         <f t="shared" si="9"/>
-        <v>86.810654237873578</v>
+        <v>104.37244922974375</v>
       </c>
       <c r="O26" s="47">
         <f t="shared" si="10"/>
-        <v>61.185691634574212</v>
+        <v>59.485807310525161</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
@@ -51107,15 +51107,15 @@
       </c>
       <c r="D33" s="47">
         <f>SUMPRODUCT($D24:$M24,$D$29:$M$29)</f>
-        <v>291.73440796959505</v>
+        <v>289.49435939123663</v>
       </c>
       <c r="E33" s="47">
         <f>SUMPRODUCT($D24:$M24,$D$30:$M$30)</f>
-        <v>231.9967497620213</v>
+        <v>236.38664683253074</v>
       </c>
       <c r="F33" s="47">
         <f>SUMPRODUCT($D24:$M24,$D$31:$M$31)</f>
-        <v>129.11547021876675</v>
+        <v>124.60160953109997</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -51124,15 +51124,15 @@
       </c>
       <c r="D34" s="47">
         <f t="shared" ref="D34:D35" si="11">SUMPRODUCT($D25:$M25,$D$29:$M$29)</f>
-        <v>205.29128187507985</v>
+        <v>202.28244155554734</v>
       </c>
       <c r="E34" s="47">
         <f t="shared" ref="E34:E35" si="12">SUMPRODUCT($D25:$M25,$D$30:$M$30)</f>
-        <v>120.61089670901619</v>
+        <v>120.05948785441784</v>
       </c>
       <c r="F34" s="47">
         <f t="shared" ref="F34:F35" si="13">SUMPRODUCT($D25:$M25,$D$31:$M$31)</f>
-        <v>41.859629672601763</v>
+        <v>39.763586513064453</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -51141,15 +51141,15 @@
       </c>
       <c r="D35" s="47">
         <f t="shared" si="11"/>
-        <v>86.443126094515179</v>
+        <v>87.21191783568932</v>
       </c>
       <c r="E35" s="47">
         <f t="shared" si="12"/>
-        <v>111.38585305300509</v>
+        <v>116.32715897811291</v>
       </c>
       <c r="F35" s="47">
         <f t="shared" si="13"/>
-        <v>87.25584054616499</v>
+        <v>84.8380230180355</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -51185,11 +51185,11 @@
       </c>
       <c r="D41" s="47">
         <f>SUMPRODUCT($D33:$F33,$D$37:$F$37)</f>
-        <v>261.86557886580817</v>
+        <v>262.94050311188369</v>
       </c>
       <c r="E41" s="47">
         <f>SUMPRODUCT($D33:$F33,$D$38:$F$38)</f>
-        <v>129.11547021876675</v>
+        <v>124.60160953109997</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -51198,11 +51198,11 @@
       </c>
       <c r="D42" s="47">
         <f t="shared" ref="D42:D43" si="14">SUMPRODUCT($D34:$F34,$D$37:$F$37)</f>
-        <v>162.95108929204801</v>
+        <v>161.17096470498259</v>
       </c>
       <c r="E42" s="47">
         <f t="shared" ref="E42:E43" si="15">SUMPRODUCT($D34:$F34,$D$38:$F$38)</f>
-        <v>41.859629672601763</v>
+        <v>39.763586513064453</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -51211,11 +51211,11 @@
       </c>
       <c r="D43" s="47">
         <f t="shared" si="14"/>
-        <v>98.914489573760136</v>
+        <v>101.76953840690112</v>
       </c>
       <c r="E43" s="47">
         <f t="shared" si="15"/>
-        <v>87.25584054616499</v>
+        <v>84.8380230180355</v>
       </c>
     </row>
   </sheetData>
@@ -51232,8 +51232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341A2429-4C82-4099-9A36-B31047FB1A99}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52357,19 +52357,19 @@
         <v>232</v>
       </c>
       <c r="D29" s="47">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E29" s="47">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F29" s="47">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G29" s="47">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="H29" s="47">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
@@ -52377,13 +52377,13 @@
         <v>233</v>
       </c>
       <c r="I30" s="47">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J30" s="47">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="K30" s="47">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
@@ -52391,10 +52391,10 @@
         <v>234</v>
       </c>
       <c r="L31" s="47">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="M31" s="47">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
@@ -52414,15 +52414,15 @@
       </c>
       <c r="D33" s="47">
         <f>SUMPRODUCT($D24:$M24,$D$29:$M$29)</f>
-        <v>291.73440796959505</v>
+        <v>369.50585576360885</v>
       </c>
       <c r="E33" s="47">
         <f>SUMPRODUCT($D24:$M24,$D$30:$M$30)</f>
-        <v>231.9967497620213</v>
+        <v>203.07357059145806</v>
       </c>
       <c r="F33" s="47">
         <f>SUMPRODUCT($D24:$M24,$D$31:$M$31)</f>
-        <v>129.11547021876675</v>
+        <v>132.34010811893233</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -52431,15 +52431,15 @@
       </c>
       <c r="D34" s="47">
         <f t="shared" ref="D34:D35" si="11">SUMPRODUCT($D25:$M25,$D$29:$M$29)</f>
-        <v>205.29128187507985</v>
+        <v>286.45963738249702</v>
       </c>
       <c r="E34" s="47">
         <f t="shared" ref="E34:E35" si="12">SUMPRODUCT($D25:$M25,$D$30:$M$30)</f>
-        <v>120.61089670901619</v>
+        <v>97.508943117493232</v>
       </c>
       <c r="F34" s="47">
         <f t="shared" ref="F34:F35" si="13">SUMPRODUCT($D25:$M25,$D$31:$M$31)</f>
-        <v>41.859629672601763</v>
+        <v>44.906193049450778</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -52448,15 +52448,15 @@
       </c>
       <c r="D35" s="47">
         <f t="shared" si="11"/>
-        <v>86.443126094515179</v>
+        <v>83.046218381111842</v>
       </c>
       <c r="E35" s="47">
         <f t="shared" si="12"/>
-        <v>111.38585305300509</v>
+        <v>105.5646274739648</v>
       </c>
       <c r="F35" s="47">
         <f t="shared" si="13"/>
-        <v>87.25584054616499</v>
+        <v>87.433915069481557</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -52492,11 +52492,11 @@
       </c>
       <c r="D41" s="47">
         <f>SUMPRODUCT($D33:$F33,$D$37:$F$37)</f>
-        <v>261.86557886580817</v>
+        <v>286.28971317753349</v>
       </c>
       <c r="E41" s="47">
         <f>SUMPRODUCT($D33:$F33,$D$38:$F$38)</f>
-        <v>129.11547021876675</v>
+        <v>132.34010811893233</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -52505,11 +52505,11 @@
       </c>
       <c r="D42" s="47">
         <f t="shared" ref="D42:D43" si="14">SUMPRODUCT($D34:$F34,$D$37:$F$37)</f>
-        <v>162.95108929204801</v>
+        <v>191.98429024999513</v>
       </c>
       <c r="E42" s="47">
         <f t="shared" ref="E42:E43" si="15">SUMPRODUCT($D34:$F34,$D$38:$F$38)</f>
-        <v>41.859629672601763</v>
+        <v>44.906193049450778</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -52518,11 +52518,11 @@
       </c>
       <c r="D43" s="47">
         <f t="shared" si="14"/>
-        <v>98.914489573760136</v>
+        <v>94.305422927538331</v>
       </c>
       <c r="E43" s="47">
         <f t="shared" si="15"/>
-        <v>87.25584054616499</v>
+        <v>87.433915069481557</v>
       </c>
     </row>
   </sheetData>
